--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Bmp8a-Acvr2b.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Bmp8a-Acvr2b.xlsx
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.3729963333333333</v>
+        <v>0.6085193333333334</v>
       </c>
       <c r="H2">
-        <v>1.118989</v>
+        <v>1.825558</v>
       </c>
       <c r="I2">
-        <v>0.1867874381458752</v>
+        <v>0.2605198214964337</v>
       </c>
       <c r="J2">
-        <v>0.1867874381458753</v>
+        <v>0.2605198214964337</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.147652333333333</v>
+        <v>1.955270666666667</v>
       </c>
       <c r="N2">
-        <v>3.442957</v>
+        <v>5.865812</v>
       </c>
       <c r="O2">
-        <v>0.4117684485751235</v>
+        <v>0.4478934208563147</v>
       </c>
       <c r="P2">
-        <v>0.4117684485751233</v>
+        <v>0.4478934208563147</v>
       </c>
       <c r="Q2">
-        <v>0.4280701122747778</v>
+        <v>1.189820002566222</v>
       </c>
       <c r="R2">
-        <v>3.852631010473</v>
+        <v>10.708380023096</v>
       </c>
       <c r="S2">
-        <v>0.07691317361864888</v>
+        <v>0.1166851140509142</v>
       </c>
       <c r="T2">
-        <v>0.07691317361864887</v>
+        <v>0.1166851140509142</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.3729963333333333</v>
+        <v>0.6085193333333334</v>
       </c>
       <c r="H3">
-        <v>1.118989</v>
+        <v>1.825558</v>
       </c>
       <c r="I3">
-        <v>0.1867874381458752</v>
+        <v>0.2605198214964337</v>
       </c>
       <c r="J3">
-        <v>0.1867874381458753</v>
+        <v>0.2605198214964337</v>
       </c>
       <c r="K3">
         <v>2</v>
@@ -626,22 +626,22 @@
         <v>0.8068029999999999</v>
       </c>
       <c r="O3">
-        <v>0.09649148090311768</v>
+        <v>0.06160472848893509</v>
       </c>
       <c r="P3">
-        <v>0.09649148090311765</v>
+        <v>0.06160472848893508</v>
       </c>
       <c r="Q3">
-        <v>0.1003115202407778</v>
+        <v>0.1636517412304445</v>
       </c>
       <c r="R3">
-        <v>0.9028036821669999</v>
+        <v>1.472865671074</v>
       </c>
       <c r="S3">
-        <v>0.01802339652079499</v>
+        <v>0.01604925286927364</v>
       </c>
       <c r="T3">
-        <v>0.01802339652079499</v>
+        <v>0.01604925286927363</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.3729963333333333</v>
+        <v>0.6085193333333334</v>
       </c>
       <c r="H4">
-        <v>1.118989</v>
+        <v>1.825558</v>
       </c>
       <c r="I4">
-        <v>0.1867874381458752</v>
+        <v>0.2605198214964337</v>
       </c>
       <c r="J4">
-        <v>0.1867874381458753</v>
+        <v>0.2605198214964337</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.377781</v>
+        <v>1.050406333333333</v>
       </c>
       <c r="N4">
-        <v>1.133343</v>
+        <v>3.151219</v>
       </c>
       <c r="O4">
-        <v>0.1355447915305001</v>
+        <v>0.2406163473663007</v>
       </c>
       <c r="P4">
-        <v>0.1355447915305001</v>
+        <v>0.2406163473663007</v>
       </c>
       <c r="Q4">
-        <v>0.140910927803</v>
+        <v>0.6391925616891112</v>
       </c>
       <c r="R4">
-        <v>1.268198350227</v>
+        <v>5.752733055202</v>
       </c>
       <c r="S4">
-        <v>0.02531806436399884</v>
+        <v>0.06268532786499256</v>
       </c>
       <c r="T4">
-        <v>0.02531806436399885</v>
+        <v>0.06268532786499255</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.3729963333333333</v>
+        <v>0.6085193333333334</v>
       </c>
       <c r="H5">
-        <v>1.118989</v>
+        <v>1.825558</v>
       </c>
       <c r="I5">
-        <v>0.1867874381458752</v>
+        <v>0.2605198214964337</v>
       </c>
       <c r="J5">
-        <v>0.1867874381458753</v>
+        <v>0.2605198214964337</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.5855753333333333</v>
+        <v>0.5333156666666666</v>
       </c>
       <c r="N5">
-        <v>1.756726</v>
+        <v>1.599947</v>
       </c>
       <c r="O5">
-        <v>0.2100997310136555</v>
+        <v>0.1221665022709214</v>
       </c>
       <c r="P5">
-        <v>0.2100997310136555</v>
+        <v>0.1221665022709214</v>
       </c>
       <c r="Q5">
-        <v>0.2184174522237778</v>
+        <v>0.3245328939362223</v>
       </c>
       <c r="R5">
-        <v>1.965757070014</v>
+        <v>2.920796045426</v>
       </c>
       <c r="S5">
-        <v>0.0392439905111782</v>
+        <v>0.03182679536446412</v>
       </c>
       <c r="T5">
-        <v>0.0392439905111782</v>
+        <v>0.03182679536446411</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,16 +788,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.3729963333333333</v>
+        <v>0.6085193333333334</v>
       </c>
       <c r="H6">
-        <v>1.118989</v>
+        <v>1.825558</v>
       </c>
       <c r="I6">
-        <v>0.1867874381458752</v>
+        <v>0.2605198214964337</v>
       </c>
       <c r="J6">
-        <v>0.1867874381458753</v>
+        <v>0.2605198214964337</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.4071873333333333</v>
+        <v>0.5575549999999999</v>
       </c>
       <c r="N6">
-        <v>1.221562</v>
+        <v>1.672665</v>
       </c>
       <c r="O6">
-        <v>0.1460955479776033</v>
+        <v>0.1277190010175279</v>
       </c>
       <c r="P6">
-        <v>0.1460955479776032</v>
+        <v>0.1277190010175279</v>
       </c>
       <c r="Q6">
-        <v>0.1518793823131111</v>
+        <v>0.3392829968966666</v>
       </c>
       <c r="R6">
-        <v>1.366914440818</v>
+        <v>3.05354697207</v>
       </c>
       <c r="S6">
-        <v>0.02728881313125432</v>
+        <v>0.03327333134678922</v>
       </c>
       <c r="T6">
-        <v>0.02728881313125432</v>
+        <v>0.03327333134678922</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -856,10 +856,10 @@
         <v>2.454042</v>
       </c>
       <c r="I7">
-        <v>0.4096413979783358</v>
+        <v>0.3502088587624996</v>
       </c>
       <c r="J7">
-        <v>0.4096413979783359</v>
+        <v>0.3502088587624995</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>1.147652333333333</v>
+        <v>1.955270666666667</v>
       </c>
       <c r="N7">
-        <v>3.442957</v>
+        <v>5.865812</v>
       </c>
       <c r="O7">
-        <v>0.4117684485751235</v>
+        <v>0.4478934208563147</v>
       </c>
       <c r="P7">
-        <v>0.4117684485751233</v>
+        <v>0.4478934208563147</v>
       </c>
       <c r="Q7">
-        <v>0.9387956757993334</v>
+        <v>1.599438779122667</v>
       </c>
       <c r="R7">
-        <v>8.449161082194001</v>
+        <v>14.394949012104</v>
       </c>
       <c r="S7">
-        <v>0.168677402917684</v>
+        <v>0.1568562437653219</v>
       </c>
       <c r="T7">
-        <v>0.168677402917684</v>
+        <v>0.1568562437653219</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -918,10 +918,10 @@
         <v>2.454042</v>
       </c>
       <c r="I8">
-        <v>0.4096413979783358</v>
+        <v>0.3502088587624996</v>
       </c>
       <c r="J8">
-        <v>0.4096413979783359</v>
+        <v>0.3502088587624995</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -936,10 +936,10 @@
         <v>0.8068029999999999</v>
       </c>
       <c r="O8">
-        <v>0.09649148090311768</v>
+        <v>0.06160472848893509</v>
       </c>
       <c r="P8">
-        <v>0.09649148090311765</v>
+        <v>0.06160472848893508</v>
       </c>
       <c r="Q8">
         <v>0.2199920497473334</v>
@@ -948,10 +948,10 @@
         <v>1.979928447726</v>
       </c>
       <c r="S8">
-        <v>0.03952690513015302</v>
+        <v>0.0215745216584836</v>
       </c>
       <c r="T8">
-        <v>0.03952690513015301</v>
+        <v>0.0215745216584836</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -980,10 +980,10 @@
         <v>2.454042</v>
       </c>
       <c r="I9">
-        <v>0.4096413979783358</v>
+        <v>0.3502088587624996</v>
       </c>
       <c r="J9">
-        <v>0.4096413979783359</v>
+        <v>0.3502088587624995</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.377781</v>
+        <v>1.050406333333333</v>
       </c>
       <c r="N9">
-        <v>1.133343</v>
+        <v>3.151219</v>
       </c>
       <c r="O9">
-        <v>0.1355447915305001</v>
+        <v>0.2406163473663007</v>
       </c>
       <c r="P9">
-        <v>0.1355447915305001</v>
+        <v>0.2406163473663007</v>
       </c>
       <c r="Q9">
-        <v>0.309030146934</v>
+        <v>0.8592470863553334</v>
       </c>
       <c r="R9">
-        <v>2.781271322406</v>
+        <v>7.733223777198</v>
       </c>
       <c r="S9">
-        <v>0.05552475789123616</v>
+        <v>0.08426597641075335</v>
       </c>
       <c r="T9">
-        <v>0.05552475789123617</v>
+        <v>0.08426597641075333</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1042,10 +1042,10 @@
         <v>2.454042</v>
       </c>
       <c r="I10">
-        <v>0.4096413979783358</v>
+        <v>0.3502088587624996</v>
       </c>
       <c r="J10">
-        <v>0.4096413979783359</v>
+        <v>0.3502088587624995</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.5855753333333333</v>
+        <v>0.5333156666666666</v>
       </c>
       <c r="N10">
-        <v>1.756726</v>
+        <v>1.599947</v>
       </c>
       <c r="O10">
-        <v>0.2100997310136555</v>
+        <v>0.1221665022709214</v>
       </c>
       <c r="P10">
-        <v>0.2100997310136555</v>
+        <v>0.1221665022709214</v>
       </c>
       <c r="Q10">
-        <v>0.4790088207213334</v>
+        <v>0.4362596817526667</v>
       </c>
       <c r="R10">
-        <v>4.311079386492001</v>
+        <v>3.926337135774</v>
       </c>
       <c r="S10">
-        <v>0.08606554752730616</v>
+        <v>0.04278379133930571</v>
       </c>
       <c r="T10">
-        <v>0.08606554752730616</v>
+        <v>0.0427837913393057</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1104,10 +1104,10 @@
         <v>2.454042</v>
       </c>
       <c r="I11">
-        <v>0.4096413979783358</v>
+        <v>0.3502088587624996</v>
       </c>
       <c r="J11">
-        <v>0.4096413979783359</v>
+        <v>0.3502088587624995</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>0.4071873333333333</v>
+        <v>0.5575549999999999</v>
       </c>
       <c r="N11">
-        <v>1.221562</v>
+        <v>1.672665</v>
       </c>
       <c r="O11">
-        <v>0.1460955479776033</v>
+        <v>0.1277190010175279</v>
       </c>
       <c r="P11">
-        <v>0.1460955479776032</v>
+        <v>0.1277190010175279</v>
       </c>
       <c r="Q11">
-        <v>0.3330849392893334</v>
+        <v>0.45608779577</v>
       </c>
       <c r="R11">
-        <v>2.997764453604</v>
+        <v>4.10479016193</v>
       </c>
       <c r="S11">
-        <v>0.05984678451195644</v>
+        <v>0.04472832558863499</v>
       </c>
       <c r="T11">
-        <v>0.05984678451195643</v>
+        <v>0.04472832558863498</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1154,22 +1154,22 @@
         <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G12">
-        <v>0.293949</v>
+        <v>0.3428273333333333</v>
       </c>
       <c r="H12">
-        <v>0.8818469999999999</v>
+        <v>1.028482</v>
       </c>
       <c r="I12">
-        <v>0.1472024675547531</v>
+        <v>0.1467715334447304</v>
       </c>
       <c r="J12">
-        <v>0.1472024675547531</v>
+        <v>0.1467715334447304</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>1.147652333333333</v>
+        <v>1.955270666666667</v>
       </c>
       <c r="N12">
-        <v>3.442957</v>
+        <v>5.865812</v>
       </c>
       <c r="O12">
-        <v>0.4117684485751235</v>
+        <v>0.4478934208563147</v>
       </c>
       <c r="P12">
-        <v>0.4117684485751233</v>
+        <v>0.4478934208563147</v>
       </c>
       <c r="Q12">
-        <v>0.3373512557309999</v>
+        <v>0.6703202285982222</v>
       </c>
       <c r="R12">
-        <v>3.036161301578999</v>
+        <v>6.032882057384</v>
       </c>
       <c r="S12">
-        <v>0.06061333169145063</v>
+        <v>0.0657380041988873</v>
       </c>
       <c r="T12">
-        <v>0.06061333169145063</v>
+        <v>0.0657380041988873</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1216,22 +1216,22 @@
         <v>21</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G13">
-        <v>0.293949</v>
+        <v>0.3428273333333333</v>
       </c>
       <c r="H13">
-        <v>0.8818469999999999</v>
+        <v>1.028482</v>
       </c>
       <c r="I13">
-        <v>0.1472024675547531</v>
+        <v>0.1467715334447304</v>
       </c>
       <c r="J13">
-        <v>0.1472024675547531</v>
+        <v>0.1467715334447304</v>
       </c>
       <c r="K13">
         <v>2</v>
@@ -1246,22 +1246,22 @@
         <v>0.8068029999999999</v>
       </c>
       <c r="O13">
-        <v>0.09649148090311768</v>
+        <v>0.06160472848893509</v>
       </c>
       <c r="P13">
-        <v>0.09649148090311765</v>
+        <v>0.06160472848893508</v>
       </c>
       <c r="Q13">
-        <v>0.07905297834899999</v>
+        <v>0.09219804033844443</v>
       </c>
       <c r="R13">
-        <v>0.7114768051409999</v>
+        <v>0.8297823630459998</v>
       </c>
       <c r="S13">
-        <v>0.01420378408695126</v>
+        <v>0.00904182046776727</v>
       </c>
       <c r="T13">
-        <v>0.01420378408695126</v>
+        <v>0.00904182046776727</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1278,22 +1278,22 @@
         <v>22</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G14">
-        <v>0.293949</v>
+        <v>0.3428273333333333</v>
       </c>
       <c r="H14">
-        <v>0.8818469999999999</v>
+        <v>1.028482</v>
       </c>
       <c r="I14">
-        <v>0.1472024675547531</v>
+        <v>0.1467715334447304</v>
       </c>
       <c r="J14">
-        <v>0.1472024675547531</v>
+        <v>0.1467715334447304</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>0.377781</v>
+        <v>1.050406333333333</v>
       </c>
       <c r="N14">
-        <v>1.133343</v>
+        <v>3.151219</v>
       </c>
       <c r="O14">
-        <v>0.1355447915305001</v>
+        <v>0.2406163473663007</v>
       </c>
       <c r="P14">
-        <v>0.1355447915305001</v>
+        <v>0.2406163473663007</v>
       </c>
       <c r="Q14">
-        <v>0.111048347169</v>
+        <v>0.3601080021731111</v>
       </c>
       <c r="R14">
-        <v>0.9994351245209999</v>
+        <v>3.240972019557999</v>
       </c>
       <c r="S14">
-        <v>0.01995252777748422</v>
+        <v>0.03531563027482187</v>
       </c>
       <c r="T14">
-        <v>0.01995252777748422</v>
+        <v>0.03531563027482187</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1340,22 +1340,22 @@
         <v>23</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G15">
-        <v>0.293949</v>
+        <v>0.3428273333333333</v>
       </c>
       <c r="H15">
-        <v>0.8818469999999999</v>
+        <v>1.028482</v>
       </c>
       <c r="I15">
-        <v>0.1472024675547531</v>
+        <v>0.1467715334447304</v>
       </c>
       <c r="J15">
-        <v>0.1472024675547531</v>
+        <v>0.1467715334447304</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>0.5855753333333333</v>
+        <v>0.5333156666666666</v>
       </c>
       <c r="N15">
-        <v>1.756726</v>
+        <v>1.599947</v>
       </c>
       <c r="O15">
-        <v>0.2100997310136555</v>
+        <v>0.1221665022709214</v>
       </c>
       <c r="P15">
-        <v>0.2100997310136555</v>
+        <v>0.1221665022709214</v>
       </c>
       <c r="Q15">
-        <v>0.172129283658</v>
+        <v>0.1828351878282222</v>
       </c>
       <c r="R15">
-        <v>1.549163552922</v>
+        <v>1.645516690454</v>
       </c>
       <c r="S15">
-        <v>0.03092719883779998</v>
+        <v>0.01793056487388228</v>
       </c>
       <c r="T15">
-        <v>0.03092719883779998</v>
+        <v>0.01793056487388227</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1402,22 +1402,22 @@
         <v>24</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G16">
-        <v>0.293949</v>
+        <v>0.3428273333333333</v>
       </c>
       <c r="H16">
-        <v>0.8818469999999999</v>
+        <v>1.028482</v>
       </c>
       <c r="I16">
-        <v>0.1472024675547531</v>
+        <v>0.1467715334447304</v>
       </c>
       <c r="J16">
-        <v>0.1472024675547531</v>
+        <v>0.1467715334447304</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>0.4071873333333333</v>
+        <v>0.5575549999999999</v>
       </c>
       <c r="N16">
-        <v>1.221562</v>
+        <v>1.672665</v>
       </c>
       <c r="O16">
-        <v>0.1460955479776033</v>
+        <v>0.1277190010175279</v>
       </c>
       <c r="P16">
-        <v>0.1460955479776032</v>
+        <v>0.1277190010175279</v>
       </c>
       <c r="Q16">
-        <v>0.119692309446</v>
+        <v>0.1911450938366666</v>
       </c>
       <c r="R16">
-        <v>1.077230785014</v>
+        <v>1.72030584453</v>
       </c>
       <c r="S16">
-        <v>0.02150562516106702</v>
+        <v>0.01874551362937166</v>
       </c>
       <c r="T16">
-        <v>0.02150562516106702</v>
+        <v>0.01874551362937166</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1470,16 +1470,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>0.3240786666666666</v>
+        <v>0.327581</v>
       </c>
       <c r="H17">
-        <v>0.9722359999999999</v>
+        <v>0.9827429999999999</v>
       </c>
       <c r="I17">
-        <v>0.1622906674803712</v>
+        <v>0.1402442600765737</v>
       </c>
       <c r="J17">
-        <v>0.1622906674803712</v>
+        <v>0.1402442600765737</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>1.147652333333333</v>
+        <v>1.955270666666667</v>
       </c>
       <c r="N17">
-        <v>3.442957</v>
+        <v>5.865812</v>
       </c>
       <c r="O17">
-        <v>0.4117684485751235</v>
+        <v>0.4478934208563147</v>
       </c>
       <c r="P17">
-        <v>0.4117684485751233</v>
+        <v>0.4478934208563147</v>
       </c>
       <c r="Q17">
-        <v>0.3719296379835555</v>
+        <v>0.6405095202573332</v>
       </c>
       <c r="R17">
-        <v>3.347366741851999</v>
+        <v>5.764585682316</v>
       </c>
       <c r="S17">
-        <v>0.06682617636661371</v>
+        <v>0.06281448140115926</v>
       </c>
       <c r="T17">
-        <v>0.06682617636661368</v>
+        <v>0.06281448140115926</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1532,16 +1532,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>0.3240786666666666</v>
+        <v>0.327581</v>
       </c>
       <c r="H18">
-        <v>0.9722359999999999</v>
+        <v>0.9827429999999999</v>
       </c>
       <c r="I18">
-        <v>0.1622906674803712</v>
+        <v>0.1402442600765737</v>
       </c>
       <c r="J18">
-        <v>0.1622906674803712</v>
+        <v>0.1402442600765737</v>
       </c>
       <c r="K18">
         <v>2</v>
@@ -1556,22 +1556,22 @@
         <v>0.8068029999999999</v>
       </c>
       <c r="O18">
-        <v>0.09649148090311768</v>
+        <v>0.06160472848893509</v>
       </c>
       <c r="P18">
-        <v>0.09649148090311765</v>
+        <v>0.06160472848893508</v>
       </c>
       <c r="Q18">
-        <v>0.08715588016755554</v>
+        <v>0.08809777784766665</v>
       </c>
       <c r="R18">
-        <v>0.7844029215079998</v>
+        <v>0.7928800006289999</v>
       </c>
       <c r="S18">
-        <v>0.01565966684193646</v>
+        <v>0.008639709564148921</v>
       </c>
       <c r="T18">
-        <v>0.01565966684193646</v>
+        <v>0.008639709564148919</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1594,16 +1594,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>0.3240786666666666</v>
+        <v>0.327581</v>
       </c>
       <c r="H19">
-        <v>0.9722359999999999</v>
+        <v>0.9827429999999999</v>
       </c>
       <c r="I19">
-        <v>0.1622906674803712</v>
+        <v>0.1402442600765737</v>
       </c>
       <c r="J19">
-        <v>0.1622906674803712</v>
+        <v>0.1402442600765737</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>0.377781</v>
+        <v>1.050406333333333</v>
       </c>
       <c r="N19">
-        <v>1.133343</v>
+        <v>3.151219</v>
       </c>
       <c r="O19">
-        <v>0.1355447915305001</v>
+        <v>0.2406163473663007</v>
       </c>
       <c r="P19">
-        <v>0.1355447915305001</v>
+        <v>0.2406163473663007</v>
       </c>
       <c r="Q19">
-        <v>0.122430762772</v>
+        <v>0.3440931570796666</v>
       </c>
       <c r="R19">
-        <v>1.101876864948</v>
+        <v>3.096838413717</v>
       </c>
       <c r="S19">
-        <v>0.02199765469097264</v>
+        <v>0.03374506159871467</v>
       </c>
       <c r="T19">
-        <v>0.02199765469097264</v>
+        <v>0.03374506159871467</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1656,16 +1656,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>0.3240786666666666</v>
+        <v>0.327581</v>
       </c>
       <c r="H20">
-        <v>0.9722359999999999</v>
+        <v>0.9827429999999999</v>
       </c>
       <c r="I20">
-        <v>0.1622906674803712</v>
+        <v>0.1402442600765737</v>
       </c>
       <c r="J20">
-        <v>0.1622906674803712</v>
+        <v>0.1402442600765737</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>0.5855753333333333</v>
+        <v>0.5333156666666666</v>
       </c>
       <c r="N20">
-        <v>1.756726</v>
+        <v>1.599947</v>
       </c>
       <c r="O20">
-        <v>0.2100997310136555</v>
+        <v>0.1221665022709214</v>
       </c>
       <c r="P20">
-        <v>0.2100997310136555</v>
+        <v>0.1221665022709214</v>
       </c>
       <c r="Q20">
-        <v>0.1897724732595555</v>
+        <v>0.1747040794023333</v>
       </c>
       <c r="R20">
-        <v>1.707952259336</v>
+        <v>1.572336714621</v>
       </c>
       <c r="S20">
-        <v>0.03409722558365261</v>
+        <v>0.01713315071712843</v>
       </c>
       <c r="T20">
-        <v>0.0340972255836526</v>
+        <v>0.01713315071712843</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1718,16 +1718,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>0.3240786666666666</v>
+        <v>0.327581</v>
       </c>
       <c r="H21">
-        <v>0.9722359999999999</v>
+        <v>0.9827429999999999</v>
       </c>
       <c r="I21">
-        <v>0.1622906674803712</v>
+        <v>0.1402442600765737</v>
       </c>
       <c r="J21">
-        <v>0.1622906674803712</v>
+        <v>0.1402442600765737</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1736,28 +1736,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>0.4071873333333333</v>
+        <v>0.5575549999999999</v>
       </c>
       <c r="N21">
-        <v>1.221562</v>
+        <v>1.672665</v>
       </c>
       <c r="O21">
-        <v>0.1460955479776033</v>
+        <v>0.1277190010175279</v>
       </c>
       <c r="P21">
-        <v>0.1460955479776032</v>
+        <v>0.1277190010175279</v>
       </c>
       <c r="Q21">
-        <v>0.1319607280702222</v>
+        <v>0.182644424455</v>
       </c>
       <c r="R21">
-        <v>1.187646552632</v>
+        <v>1.643799820095</v>
       </c>
       <c r="S21">
-        <v>0.02370994399719584</v>
+        <v>0.01791185679542237</v>
       </c>
       <c r="T21">
-        <v>0.02370994399719583</v>
+        <v>0.01791185679542237</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1780,16 +1780,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G22">
-        <v>0.1878646666666667</v>
+        <v>0.2388473333333333</v>
       </c>
       <c r="H22">
-        <v>0.563594</v>
+        <v>0.716542</v>
       </c>
       <c r="I22">
-        <v>0.09407802884066457</v>
+        <v>0.1022555262197627</v>
       </c>
       <c r="J22">
-        <v>0.09407802884066459</v>
+        <v>0.1022555262197627</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1798,28 +1798,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>1.147652333333333</v>
+        <v>1.955270666666667</v>
       </c>
       <c r="N22">
-        <v>3.442957</v>
+        <v>5.865812</v>
       </c>
       <c r="O22">
-        <v>0.4117684485751235</v>
+        <v>0.4478934208563147</v>
       </c>
       <c r="P22">
-        <v>0.4117684485751233</v>
+        <v>0.4478934208563147</v>
       </c>
       <c r="Q22">
-        <v>0.2156033230508889</v>
+        <v>0.4670111846782222</v>
       </c>
       <c r="R22">
-        <v>1.940429907458</v>
+        <v>4.203100662104</v>
       </c>
       <c r="S22">
-        <v>0.03873836398072617</v>
+        <v>0.0457995774400321</v>
       </c>
       <c r="T22">
-        <v>0.03873836398072616</v>
+        <v>0.0457995774400321</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1842,16 +1842,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G23">
-        <v>0.1878646666666667</v>
+        <v>0.2388473333333333</v>
       </c>
       <c r="H23">
-        <v>0.563594</v>
+        <v>0.716542</v>
       </c>
       <c r="I23">
-        <v>0.09407802884066457</v>
+        <v>0.1022555262197627</v>
       </c>
       <c r="J23">
-        <v>0.09407802884066459</v>
+        <v>0.1022555262197627</v>
       </c>
       <c r="K23">
         <v>2</v>
@@ -1866,22 +1866,22 @@
         <v>0.8068029999999999</v>
       </c>
       <c r="O23">
-        <v>0.09649148090311768</v>
+        <v>0.06160472848893509</v>
       </c>
       <c r="P23">
-        <v>0.09649148090311765</v>
+        <v>0.06160472848893508</v>
       </c>
       <c r="Q23">
-        <v>0.05052325888688889</v>
+        <v>0.06423424835844445</v>
       </c>
       <c r="R23">
-        <v>0.454709329982</v>
+        <v>0.578108235226</v>
       </c>
       <c r="S23">
-        <v>0.00907772832328194</v>
+        <v>0.006299423929261665</v>
       </c>
       <c r="T23">
-        <v>0.00907772832328194</v>
+        <v>0.006299423929261664</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1904,16 +1904,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G24">
-        <v>0.1878646666666667</v>
+        <v>0.2388473333333333</v>
       </c>
       <c r="H24">
-        <v>0.563594</v>
+        <v>0.716542</v>
       </c>
       <c r="I24">
-        <v>0.09407802884066457</v>
+        <v>0.1022555262197627</v>
       </c>
       <c r="J24">
-        <v>0.09407802884066459</v>
+        <v>0.1022555262197627</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1922,28 +1922,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>0.377781</v>
+        <v>1.050406333333333</v>
       </c>
       <c r="N24">
-        <v>1.133343</v>
+        <v>3.151219</v>
       </c>
       <c r="O24">
-        <v>0.1355447915305001</v>
+        <v>0.2406163473663007</v>
       </c>
       <c r="P24">
-        <v>0.1355447915305001</v>
+        <v>0.2406163473663007</v>
       </c>
       <c r="Q24">
-        <v>0.070971701638</v>
+        <v>0.2508867516331111</v>
       </c>
       <c r="R24">
-        <v>0.638745314742</v>
+        <v>2.257980764698</v>
       </c>
       <c r="S24">
-        <v>0.01275178680680826</v>
+        <v>0.0246043512170183</v>
       </c>
       <c r="T24">
-        <v>0.01275178680680826</v>
+        <v>0.0246043512170183</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1966,16 +1966,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G25">
-        <v>0.1878646666666667</v>
+        <v>0.2388473333333333</v>
       </c>
       <c r="H25">
-        <v>0.563594</v>
+        <v>0.716542</v>
       </c>
       <c r="I25">
-        <v>0.09407802884066457</v>
+        <v>0.1022555262197627</v>
       </c>
       <c r="J25">
-        <v>0.09407802884066459</v>
+        <v>0.1022555262197627</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1984,28 +1984,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>0.5855753333333333</v>
+        <v>0.5333156666666666</v>
       </c>
       <c r="N25">
-        <v>1.756726</v>
+        <v>1.599947</v>
       </c>
       <c r="O25">
-        <v>0.2100997310136555</v>
+        <v>0.1221665022709214</v>
       </c>
       <c r="P25">
-        <v>0.2100997310136555</v>
+        <v>0.1221665022709214</v>
       </c>
       <c r="Q25">
-        <v>0.1100089148048889</v>
+        <v>0.1273810248082222</v>
       </c>
       <c r="R25">
-        <v>0.9900802332440001</v>
+        <v>1.146429223274</v>
       </c>
       <c r="S25">
-        <v>0.01976576855371855</v>
+        <v>0.01249219997614091</v>
       </c>
       <c r="T25">
-        <v>0.01976576855371855</v>
+        <v>0.0124921999761409</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2028,16 +2028,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G26">
-        <v>0.1878646666666667</v>
+        <v>0.2388473333333333</v>
       </c>
       <c r="H26">
-        <v>0.563594</v>
+        <v>0.716542</v>
       </c>
       <c r="I26">
-        <v>0.09407802884066457</v>
+        <v>0.1022555262197627</v>
       </c>
       <c r="J26">
-        <v>0.09407802884066459</v>
+        <v>0.1022555262197627</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2046,28 +2046,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>0.4071873333333333</v>
+        <v>0.5575549999999999</v>
       </c>
       <c r="N26">
-        <v>1.221562</v>
+        <v>1.672665</v>
       </c>
       <c r="O26">
-        <v>0.1460955479776033</v>
+        <v>0.1277190010175279</v>
       </c>
       <c r="P26">
-        <v>0.1460955479776032</v>
+        <v>0.1277190010175279</v>
       </c>
       <c r="Q26">
-        <v>0.07649611264755557</v>
+        <v>0.1331705249366666</v>
       </c>
       <c r="R26">
-        <v>0.6884650138280001</v>
+        <v>1.19853472443</v>
       </c>
       <c r="S26">
-        <v>0.01374438117612966</v>
+        <v>0.01305997365730973</v>
       </c>
       <c r="T26">
-        <v>0.01374438117612965</v>
+        <v>0.01305997365730973</v>
       </c>
     </row>
   </sheetData>
